--- a/Resources/Empty Sheet Peer Assestment.xlsx
+++ b/Resources/Empty Sheet Peer Assestment.xlsx
@@ -94,7 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +142,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,7 +212,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,6 +409,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
       <c r="C2">
         <v>18</v>
       </c>
@@ -417,6 +420,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
       <c r="C3">
         <v>17</v>
       </c>
@@ -425,6 +431,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
       <c r="C4">
         <v>18</v>
       </c>
@@ -433,6 +442,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
       <c r="C5">
         <v>18</v>
       </c>
@@ -441,6 +453,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
       <c r="C6">
         <v>16</v>
       </c>
@@ -449,6 +464,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
       <c r="C7">
         <v>18</v>
       </c>
@@ -457,6 +475,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
       <c r="C8">
         <v>17</v>
       </c>
@@ -465,6 +486,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
       <c r="C9">
         <v>16</v>
       </c>
@@ -473,6 +497,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
       <c r="C10">
         <v>18</v>
       </c>
@@ -481,6 +508,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
       <c r="C11">
         <v>18</v>
       </c>
@@ -488,6 +518,9 @@
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
       </c>
       <c r="C12">
         <v>16</v>
